--- a/_data/ETHUSDT_4h.xlsx
+++ b/_data/ETHUSDT_4h.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1084"/>
+  <dimension ref="A1:F1126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22081,6 +22081,846 @@
         <v>13868.1681</v>
       </c>
     </row>
+    <row r="1085" spans="1:6">
+      <c r="A1085" s="2">
+        <v>45534.5</v>
+      </c>
+      <c r="B1085">
+        <v>2512.43</v>
+      </c>
+      <c r="C1085">
+        <v>2552.17</v>
+      </c>
+      <c r="D1085">
+        <v>2434.96</v>
+      </c>
+      <c r="E1085">
+        <v>2448.75</v>
+      </c>
+      <c r="F1085">
+        <v>103983.6261</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6">
+      <c r="A1086" s="2">
+        <v>45534.66666666666</v>
+      </c>
+      <c r="B1086">
+        <v>2448.76</v>
+      </c>
+      <c r="C1086">
+        <v>2542.19</v>
+      </c>
+      <c r="D1086">
+        <v>2431.14</v>
+      </c>
+      <c r="E1086">
+        <v>2506.94</v>
+      </c>
+      <c r="F1086">
+        <v>130701.1151</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6">
+      <c r="A1087" s="2">
+        <v>45534.83333333334</v>
+      </c>
+      <c r="B1087">
+        <v>2506.94</v>
+      </c>
+      <c r="C1087">
+        <v>2530.66</v>
+      </c>
+      <c r="D1087">
+        <v>2506.35</v>
+      </c>
+      <c r="E1087">
+        <v>2526</v>
+      </c>
+      <c r="F1087">
+        <v>19268.6521</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6">
+      <c r="A1088" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B1088">
+        <v>2525.99</v>
+      </c>
+      <c r="C1088">
+        <v>2533.95</v>
+      </c>
+      <c r="D1088">
+        <v>2518.86</v>
+      </c>
+      <c r="E1088">
+        <v>2523.52</v>
+      </c>
+      <c r="F1088">
+        <v>14166.9397</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6">
+      <c r="A1089" s="2">
+        <v>45535.16666666666</v>
+      </c>
+      <c r="B1089">
+        <v>2523.52</v>
+      </c>
+      <c r="C1089">
+        <v>2529.86</v>
+      </c>
+      <c r="D1089">
+        <v>2518.17</v>
+      </c>
+      <c r="E1089">
+        <v>2521.01</v>
+      </c>
+      <c r="F1089">
+        <v>14956.1787</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6">
+      <c r="A1090" s="2">
+        <v>45535.33333333334</v>
+      </c>
+      <c r="B1090">
+        <v>2521.01</v>
+      </c>
+      <c r="C1090">
+        <v>2529.81</v>
+      </c>
+      <c r="D1090">
+        <v>2511.47</v>
+      </c>
+      <c r="E1090">
+        <v>2525.5</v>
+      </c>
+      <c r="F1090">
+        <v>14773.6726</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6">
+      <c r="A1091" s="2">
+        <v>45535.5</v>
+      </c>
+      <c r="B1091">
+        <v>2525.49</v>
+      </c>
+      <c r="C1091">
+        <v>2527.8</v>
+      </c>
+      <c r="D1091">
+        <v>2513.8</v>
+      </c>
+      <c r="E1091">
+        <v>2519.19</v>
+      </c>
+      <c r="F1091">
+        <v>15368.1774</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6">
+      <c r="A1092" s="2">
+        <v>45535.66666666666</v>
+      </c>
+      <c r="B1092">
+        <v>2519.18</v>
+      </c>
+      <c r="C1092">
+        <v>2519.8</v>
+      </c>
+      <c r="D1092">
+        <v>2491.92</v>
+      </c>
+      <c r="E1092">
+        <v>2499.8</v>
+      </c>
+      <c r="F1092">
+        <v>22057.3239</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6">
+      <c r="A1093" s="2">
+        <v>45535.83333333334</v>
+      </c>
+      <c r="B1093">
+        <v>2499.79</v>
+      </c>
+      <c r="C1093">
+        <v>2512.64</v>
+      </c>
+      <c r="D1093">
+        <v>2493.68</v>
+      </c>
+      <c r="E1093">
+        <v>2510.89</v>
+      </c>
+      <c r="F1093">
+        <v>7778.3142</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6">
+      <c r="A1094" s="2">
+        <v>45536</v>
+      </c>
+      <c r="B1094">
+        <v>2513</v>
+      </c>
+      <c r="C1094">
+        <v>2516.28</v>
+      </c>
+      <c r="D1094">
+        <v>2476.44</v>
+      </c>
+      <c r="E1094">
+        <v>2488.74</v>
+      </c>
+      <c r="F1094">
+        <v>22040.3526</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6">
+      <c r="A1095" s="2">
+        <v>45536.16666666666</v>
+      </c>
+      <c r="B1095">
+        <v>2488.75</v>
+      </c>
+      <c r="C1095">
+        <v>2491.18</v>
+      </c>
+      <c r="D1095">
+        <v>2458.84</v>
+      </c>
+      <c r="E1095">
+        <v>2486.82</v>
+      </c>
+      <c r="F1095">
+        <v>26820.4775</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6">
+      <c r="A1096" s="2">
+        <v>45536.33333333334</v>
+      </c>
+      <c r="B1096">
+        <v>2486.82</v>
+      </c>
+      <c r="C1096">
+        <v>2492.88</v>
+      </c>
+      <c r="D1096">
+        <v>2459.02</v>
+      </c>
+      <c r="E1096">
+        <v>2477.74</v>
+      </c>
+      <c r="F1096">
+        <v>22368.1709</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6">
+      <c r="A1097" s="2">
+        <v>45536.5</v>
+      </c>
+      <c r="B1097">
+        <v>2477.73</v>
+      </c>
+      <c r="C1097">
+        <v>2489.31</v>
+      </c>
+      <c r="D1097">
+        <v>2438</v>
+      </c>
+      <c r="E1097">
+        <v>2480.83</v>
+      </c>
+      <c r="F1097">
+        <v>47978.3656</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6">
+      <c r="A1098" s="2">
+        <v>45536.66666666666</v>
+      </c>
+      <c r="B1098">
+        <v>2480.83</v>
+      </c>
+      <c r="C1098">
+        <v>2487.01</v>
+      </c>
+      <c r="D1098">
+        <v>2466.54</v>
+      </c>
+      <c r="E1098">
+        <v>2476.14</v>
+      </c>
+      <c r="F1098">
+        <v>7689.2003</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6">
+      <c r="A1099" s="2">
+        <v>45536.83333333334</v>
+      </c>
+      <c r="B1099">
+        <v>2501.71</v>
+      </c>
+      <c r="C1099">
+        <v>2516</v>
+      </c>
+      <c r="D1099">
+        <v>2473.6</v>
+      </c>
+      <c r="E1099">
+        <v>2482.94</v>
+      </c>
+      <c r="F1099">
+        <v>11700.672</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6">
+      <c r="A1100" s="2">
+        <v>45537</v>
+      </c>
+      <c r="B1100">
+        <v>2425.71</v>
+      </c>
+      <c r="C1100">
+        <v>2455.26</v>
+      </c>
+      <c r="D1100">
+        <v>2423.52</v>
+      </c>
+      <c r="E1100">
+        <v>2450.52</v>
+      </c>
+      <c r="F1100">
+        <v>35331.6569</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6">
+      <c r="A1101" s="2">
+        <v>45537.16666666666</v>
+      </c>
+      <c r="B1101">
+        <v>2450.47</v>
+      </c>
+      <c r="C1101">
+        <v>2466.2</v>
+      </c>
+      <c r="D1101">
+        <v>2433.18</v>
+      </c>
+      <c r="E1101">
+        <v>2441.14</v>
+      </c>
+      <c r="F1101">
+        <v>37943.8673</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6">
+      <c r="A1102" s="2">
+        <v>45537.33333333334</v>
+      </c>
+      <c r="B1102">
+        <v>2441.14</v>
+      </c>
+      <c r="C1102">
+        <v>2539.53</v>
+      </c>
+      <c r="D1102">
+        <v>2438.39</v>
+      </c>
+      <c r="E1102">
+        <v>2517.33</v>
+      </c>
+      <c r="F1102">
+        <v>84869.04240000001</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6">
+      <c r="A1103" s="2">
+        <v>45537.5</v>
+      </c>
+      <c r="B1103">
+        <v>2515.81</v>
+      </c>
+      <c r="C1103">
+        <v>2524.67</v>
+      </c>
+      <c r="D1103">
+        <v>2510.59</v>
+      </c>
+      <c r="E1103">
+        <v>2520.02</v>
+      </c>
+      <c r="F1103">
+        <v>7583.8207</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6">
+      <c r="A1104" s="2">
+        <v>45537.66666666666</v>
+      </c>
+      <c r="B1104">
+        <v>2513.2</v>
+      </c>
+      <c r="C1104">
+        <v>2530.92</v>
+      </c>
+      <c r="D1104">
+        <v>2505.78</v>
+      </c>
+      <c r="E1104">
+        <v>2524.25</v>
+      </c>
+      <c r="F1104">
+        <v>29916.1001</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6">
+      <c r="A1105" s="2">
+        <v>45537.83333333334</v>
+      </c>
+      <c r="B1105">
+        <v>2524.26</v>
+      </c>
+      <c r="C1105">
+        <v>2564.83</v>
+      </c>
+      <c r="D1105">
+        <v>2522.22</v>
+      </c>
+      <c r="E1105">
+        <v>2538.01</v>
+      </c>
+      <c r="F1105">
+        <v>31904.11</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6">
+      <c r="A1106" s="2">
+        <v>45538</v>
+      </c>
+      <c r="B1106">
+        <v>2538</v>
+      </c>
+      <c r="C1106">
+        <v>2553.6</v>
+      </c>
+      <c r="D1106">
+        <v>2514.73</v>
+      </c>
+      <c r="E1106">
+        <v>2516</v>
+      </c>
+      <c r="F1106">
+        <v>27730.1585</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6">
+      <c r="A1107" s="2">
+        <v>45538.16666666666</v>
+      </c>
+      <c r="B1107">
+        <v>2516</v>
+      </c>
+      <c r="C1107">
+        <v>2525.2</v>
+      </c>
+      <c r="D1107">
+        <v>2512.46</v>
+      </c>
+      <c r="E1107">
+        <v>2519.55</v>
+      </c>
+      <c r="F1107">
+        <v>19383.1812</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6">
+      <c r="A1108" s="2">
+        <v>45538.33333333334</v>
+      </c>
+      <c r="B1108">
+        <v>2519.55</v>
+      </c>
+      <c r="C1108">
+        <v>2520.54</v>
+      </c>
+      <c r="D1108">
+        <v>2494.24</v>
+      </c>
+      <c r="E1108">
+        <v>2509.59</v>
+      </c>
+      <c r="F1108">
+        <v>20704.4681</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6">
+      <c r="A1109" s="2">
+        <v>45538.5</v>
+      </c>
+      <c r="B1109">
+        <v>2509.59</v>
+      </c>
+      <c r="C1109">
+        <v>2519.12</v>
+      </c>
+      <c r="D1109">
+        <v>2435.79</v>
+      </c>
+      <c r="E1109">
+        <v>2444.01</v>
+      </c>
+      <c r="F1109">
+        <v>81518.50019999999</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6">
+      <c r="A1110" s="2">
+        <v>45538.66666666666</v>
+      </c>
+      <c r="B1110">
+        <v>2444.01</v>
+      </c>
+      <c r="C1110">
+        <v>2469.87</v>
+      </c>
+      <c r="D1110">
+        <v>2435.83</v>
+      </c>
+      <c r="E1110">
+        <v>2447.6</v>
+      </c>
+      <c r="F1110">
+        <v>41528.1331</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6">
+      <c r="A1111" s="2">
+        <v>45538.83333333334</v>
+      </c>
+      <c r="B1111">
+        <v>2447.6</v>
+      </c>
+      <c r="C1111">
+        <v>2470.57</v>
+      </c>
+      <c r="D1111">
+        <v>2411.12</v>
+      </c>
+      <c r="E1111">
+        <v>2425.29</v>
+      </c>
+      <c r="F1111">
+        <v>33928.6888</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6">
+      <c r="A1112" s="2">
+        <v>45539</v>
+      </c>
+      <c r="B1112">
+        <v>2425.28</v>
+      </c>
+      <c r="C1112">
+        <v>2449.22</v>
+      </c>
+      <c r="D1112">
+        <v>2306.65</v>
+      </c>
+      <c r="E1112">
+        <v>2373</v>
+      </c>
+      <c r="F1112">
+        <v>144366.9266</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6">
+      <c r="A1113" s="2">
+        <v>45539.16666666666</v>
+      </c>
+      <c r="B1113">
+        <v>2372.99</v>
+      </c>
+      <c r="C1113">
+        <v>2414.71</v>
+      </c>
+      <c r="D1113">
+        <v>2363.56</v>
+      </c>
+      <c r="E1113">
+        <v>2401.52</v>
+      </c>
+      <c r="F1113">
+        <v>45719.3498</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6">
+      <c r="A1114" s="2">
+        <v>45539.33333333334</v>
+      </c>
+      <c r="B1114">
+        <v>2401.52</v>
+      </c>
+      <c r="C1114">
+        <v>2410.83</v>
+      </c>
+      <c r="D1114">
+        <v>2387.15</v>
+      </c>
+      <c r="E1114">
+        <v>2398.77</v>
+      </c>
+      <c r="F1114">
+        <v>36620.6349</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6">
+      <c r="A1115" s="2">
+        <v>45539.5</v>
+      </c>
+      <c r="B1115">
+        <v>2398.77</v>
+      </c>
+      <c r="C1115">
+        <v>2458.57</v>
+      </c>
+      <c r="D1115">
+        <v>2393.16</v>
+      </c>
+      <c r="E1115">
+        <v>2455.4</v>
+      </c>
+      <c r="F1115">
+        <v>91240.01700000001</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6">
+      <c r="A1116" s="2">
+        <v>45539.66666666666</v>
+      </c>
+      <c r="B1116">
+        <v>2455.39</v>
+      </c>
+      <c r="C1116">
+        <v>2490</v>
+      </c>
+      <c r="D1116">
+        <v>2439.2</v>
+      </c>
+      <c r="E1116">
+        <v>2447.62</v>
+      </c>
+      <c r="F1116">
+        <v>46355.3428</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6">
+      <c r="A1117" s="2">
+        <v>45539.83333333334</v>
+      </c>
+      <c r="B1117">
+        <v>2452.15</v>
+      </c>
+      <c r="C1117">
+        <v>2469.55</v>
+      </c>
+      <c r="D1117">
+        <v>2443.32</v>
+      </c>
+      <c r="E1117">
+        <v>2450.71</v>
+      </c>
+      <c r="F1117">
+        <v>18010.6716</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6">
+      <c r="A1118" s="2">
+        <v>45540</v>
+      </c>
+      <c r="B1118">
+        <v>2450.71</v>
+      </c>
+      <c r="C1118">
+        <v>2466</v>
+      </c>
+      <c r="D1118">
+        <v>2404.28</v>
+      </c>
+      <c r="E1118">
+        <v>2405.55</v>
+      </c>
+      <c r="F1118">
+        <v>51182.1435</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6">
+      <c r="A1119" s="2">
+        <v>45540.16666666666</v>
+      </c>
+      <c r="B1119">
+        <v>2405.56</v>
+      </c>
+      <c r="C1119">
+        <v>2418.47</v>
+      </c>
+      <c r="D1119">
+        <v>2376.72</v>
+      </c>
+      <c r="E1119">
+        <v>2412.4</v>
+      </c>
+      <c r="F1119">
+        <v>42138.4727</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6">
+      <c r="A1120" s="2">
+        <v>45540.33333333334</v>
+      </c>
+      <c r="B1120">
+        <v>2412.41</v>
+      </c>
+      <c r="C1120">
+        <v>2416.35</v>
+      </c>
+      <c r="D1120">
+        <v>2383.16</v>
+      </c>
+      <c r="E1120">
+        <v>2389.54</v>
+      </c>
+      <c r="F1120">
+        <v>28448.2371</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6">
+      <c r="A1121" s="2">
+        <v>45540.5</v>
+      </c>
+      <c r="B1121">
+        <v>2389.53</v>
+      </c>
+      <c r="C1121">
+        <v>2415.15</v>
+      </c>
+      <c r="D1121">
+        <v>2355.8</v>
+      </c>
+      <c r="E1121">
+        <v>2371.43</v>
+      </c>
+      <c r="F1121">
+        <v>85446.0382</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6">
+      <c r="A1122" s="2">
+        <v>45540.66666666666</v>
+      </c>
+      <c r="B1122">
+        <v>2371.43</v>
+      </c>
+      <c r="C1122">
+        <v>2395.99</v>
+      </c>
+      <c r="D1122">
+        <v>2348.04</v>
+      </c>
+      <c r="E1122">
+        <v>2363.97</v>
+      </c>
+      <c r="F1122">
+        <v>43189.7973</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6">
+      <c r="A1123" s="2">
+        <v>45540.83333333334</v>
+      </c>
+      <c r="B1123">
+        <v>2363.97</v>
+      </c>
+      <c r="C1123">
+        <v>2378.33</v>
+      </c>
+      <c r="D1123">
+        <v>2350</v>
+      </c>
+      <c r="E1123">
+        <v>2368.81</v>
+      </c>
+      <c r="F1123">
+        <v>28144.4081</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6">
+      <c r="A1124" s="2">
+        <v>45541</v>
+      </c>
+      <c r="B1124">
+        <v>2368.81</v>
+      </c>
+      <c r="C1124">
+        <v>2408.4</v>
+      </c>
+      <c r="D1124">
+        <v>2357.6</v>
+      </c>
+      <c r="E1124">
+        <v>2392.63</v>
+      </c>
+      <c r="F1124">
+        <v>32980.5199</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6">
+      <c r="A1125" s="2">
+        <v>45541.16666666666</v>
+      </c>
+      <c r="B1125">
+        <v>2392.63</v>
+      </c>
+      <c r="C1125">
+        <v>2397.35</v>
+      </c>
+      <c r="D1125">
+        <v>2321.21</v>
+      </c>
+      <c r="E1125">
+        <v>2344.45</v>
+      </c>
+      <c r="F1125">
+        <v>57143.7515</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6">
+      <c r="A1126" s="2">
+        <v>45541.33333333334</v>
+      </c>
+      <c r="B1126">
+        <v>2344.44</v>
+      </c>
+      <c r="C1126">
+        <v>2377.4</v>
+      </c>
+      <c r="D1126">
+        <v>2338.57</v>
+      </c>
+      <c r="E1126">
+        <v>2372.8</v>
+      </c>
+      <c r="F1126">
+        <v>36067.1436</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
